--- a/Analyzed/try2/data_2005.xlsx
+++ b/Analyzed/try2/data_2005.xlsx
@@ -541,13 +541,13 @@
         <v>1401.684</v>
       </c>
       <c r="L2">
-        <v>60.90000000000001</v>
+        <v>2131.5</v>
       </c>
       <c r="M2">
         <v>50.18642180552327</v>
       </c>
       <c r="N2">
-        <v>79.2</v>
+        <v>2296.8</v>
       </c>
       <c r="O2">
         <v>830.41</v>
@@ -632,13 +632,13 @@
         <v>2338.277</v>
       </c>
       <c r="L3">
-        <v>59.3</v>
+        <v>2075.5</v>
       </c>
       <c r="M3">
         <v>58.5550347843318</v>
       </c>
       <c r="N3">
-        <v>62.91</v>
+        <v>1824.39</v>
       </c>
       <c r="O3">
         <v>773.22</v>
@@ -723,13 +723,13 @@
         <v>2125.921</v>
       </c>
       <c r="L4">
-        <v>58.5</v>
+        <v>2047.5</v>
       </c>
       <c r="M4">
         <v>53.35203329461116</v>
       </c>
       <c r="N4">
-        <v>71.73</v>
+        <v>2080.17</v>
       </c>
       <c r="O4">
         <v>1212.95</v>
@@ -774,7 +774,7 @@
         <v>1</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -814,13 +814,13 @@
         <v>1578.722</v>
       </c>
       <c r="L5">
-        <v>63.7</v>
+        <v>2229.5</v>
       </c>
       <c r="M5">
         <v>62.23904319098227</v>
       </c>
       <c r="N5">
-        <v>33.84999999999999</v>
+        <v>981.6499999999997</v>
       </c>
       <c r="O5">
         <v>794.66</v>
@@ -853,10 +853,10 @@
         <v>1</v>
       </c>
       <c r="Y5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA5">
         <v>2</v>
@@ -865,7 +865,7 @@
         <v>3</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -905,13 +905,13 @@
         <v>1783.982</v>
       </c>
       <c r="L6">
-        <v>49</v>
+        <v>1715</v>
       </c>
       <c r="M6">
         <v>56.11699864936482</v>
       </c>
       <c r="N6">
-        <v>66.42</v>
+        <v>1926.18</v>
       </c>
       <c r="O6">
         <v>903.13</v>
@@ -944,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="Y6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z6">
         <v>2</v>
@@ -953,10 +953,10 @@
         <v>2</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -996,13 +996,13 @@
         <v>1445.81</v>
       </c>
       <c r="L7">
-        <v>59.5</v>
+        <v>2082.5</v>
       </c>
       <c r="M7">
         <v>65.24526493767324</v>
       </c>
       <c r="N7">
-        <v>54.83000000000001</v>
+        <v>1590.07</v>
       </c>
       <c r="O7">
         <v>1204.84</v>
@@ -1038,13 +1038,13 @@
         <v>2</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC7">
         <v>2</v>
@@ -1087,13 +1087,13 @@
         <v>1105.268</v>
       </c>
       <c r="L8">
-        <v>55.5</v>
+        <v>1942.5</v>
       </c>
       <c r="M8">
         <v>60.30630489123204</v>
       </c>
       <c r="N8">
-        <v>56.25</v>
+        <v>1631.25</v>
       </c>
       <c r="O8">
         <v>996.8</v>
@@ -1126,10 +1126,10 @@
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA8">
         <v>2</v>
@@ -1178,13 +1178,13 @@
         <v>733.999</v>
       </c>
       <c r="L9">
-        <v>53.8</v>
+        <v>1883</v>
       </c>
       <c r="M9">
         <v>62.7104682279546</v>
       </c>
       <c r="N9">
-        <v>15.67</v>
+        <v>454.4299999999999</v>
       </c>
       <c r="O9">
         <v>1071.68</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
